--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348847.5118834599</v>
+        <v>-349559.7766372053</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="E9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>118.8039072205291</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>158.7148198294071</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700852</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294984</v>
+        <v>16.74367530294985</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.738019759611</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8629667640259</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>9.37638767482494</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4860450762373</v>
+        <v>90.282016566801</v>
       </c>
       <c r="T12" t="n">
         <v>36.82929343736549</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>128.786443936575</v>
+        <v>58.05720677900672</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700851</v>
+        <v>62.87039510700843</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294983</v>
+        <v>16.74367530294976</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013698</v>
+        <v>49.3766432301369</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692373</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.37638767482494</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.96183428535875</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050422</v>
+        <v>13.44964351050414</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736549</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930764</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586126</v>
+        <v>62.50715706586118</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747061</v>
+        <v>88.56281972747053</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992962</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4860450762372</v>
+        <v>85.82167894976222</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386649</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S16" t="n">
-        <v>57.2967650834555</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>52.75356893591066</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695985</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E17" t="n">
         <v>74.026983616368</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>40.44453538049873</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943795</v>
       </c>
       <c r="Y17" t="n">
         <v>84.83363897318173</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>76.25020681869854</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446376404189</v>
@@ -1974,16 +1974,16 @@
         <v>188.4860450762372</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>17.27387086273091</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>77.2181003705696</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5078040121588605</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>86.60374279839363</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>99.25899956161463</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2841302900983</v>
+        <v>124.2841302900982</v>
       </c>
       <c r="E26" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7112202878845</v>
+        <v>189.7112202878844</v>
       </c>
       <c r="G26" t="n">
         <v>205.3502055971889</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442047</v>
+        <v>27.52412960442045</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754894</v>
+        <v>14.03037772754891</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335682</v>
+        <v>8.978123394335665</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945426</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4084344736379</v>
+        <v>124.4084344736378</v>
       </c>
       <c r="X26" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.7975380663209</v>
+        <v>168.7975380663208</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>44.46778764127518</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.8564466390882</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777452</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671959</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327322</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488254</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341556</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896568</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174298</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113509</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039399</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442047</v>
+        <v>27.52412960442048</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>14.03037772754894</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335691</v>
+        <v>8.978123394335693</v>
       </c>
       <c r="U29" t="n">
         <v>36.66251709945428</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777452</v>
+        <v>17.2561031716149</v>
       </c>
       <c r="U30" t="n">
         <v>23.74004232671959</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327322</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>256.5077809860861</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664838</v>
+        <v>159.6893265664837</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698293</v>
+        <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.1204932683284</v>
+        <v>13.12049326832837</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115147</v>
+        <v>8.068238935115119</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023374</v>
+        <v>35.75263264023371</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978025</v>
+        <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833566</v>
+        <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569168</v>
+        <v>0.573143475556889</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749906</v>
+        <v>229.7609224655845</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405269</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121049</v>
+        <v>2.915000628121021</v>
       </c>
       <c r="Y33" t="n">
-        <v>112.9877984745635</v>
+        <v>8.986372322676033</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164692</v>
+        <v>21.04061512164689</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522478</v>
+        <v>9.363763442522451</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385711</v>
+        <v>74.25864467385708</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310035</v>
+        <v>30.71110137310032</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798577</v>
+        <v>75.91279327798574</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892973</v>
+        <v>7.521541596892945</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818863</v>
+        <v>2.743359002818835</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>174.1698828333915</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>160.1471051704375</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>56.8437168006547</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4612548573208</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>161.9360113282951</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033811</v>
+        <v>9.138387495033818</v>
       </c>
       <c r="V41" t="n">
         <v>79.86762465260253</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.364552236389</v>
+        <v>24.92252445246793</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>184.2479948011245</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046211</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>174.1989652923551</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>24.9225244524682</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69242462046211</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="C9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
-        <v>7.386136284035041</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
         <v>0.2813495544899843</v>
@@ -4884,19 +4884,19 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.763050291303539</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>7.244751028117094</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
-        <v>7.244751028117094</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>10.72645176493065</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4911,22 +4911,22 @@
         <v>10.51508435972668</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="X9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2813495544899843</v>
+        <v>14.06747772449921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.6397074667993</v>
+        <v>422.9722151400731</v>
       </c>
       <c r="C11" t="n">
-        <v>336.6397074667993</v>
+        <v>249.1704640980147</v>
       </c>
       <c r="D11" t="n">
-        <v>175.3968834337828</v>
+        <v>249.1704640980147</v>
       </c>
       <c r="E11" t="n">
-        <v>175.3968834337828</v>
+        <v>249.1704640980147</v>
       </c>
       <c r="F11" t="n">
-        <v>15.07888360609898</v>
+        <v>249.1704640980147</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07888360609898</v>
+        <v>249.1704640980147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07888360609898</v>
+        <v>78.58433320913791</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115222</v>
+        <v>83.48690920284417</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1128385102955</v>
+        <v>253.1795291016175</v>
       </c>
       <c r="L11" t="n">
-        <v>411.1749287624667</v>
+        <v>299.8906874406539</v>
       </c>
       <c r="M11" t="n">
-        <v>492.026052375812</v>
+        <v>380.7418110539992</v>
       </c>
       <c r="N11" t="n">
-        <v>567.3429956794741</v>
+        <v>567.342995679474</v>
       </c>
       <c r="O11" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686361</v>
+        <v>737.0313769686359</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0313769686361</v>
+        <v>687.1559797664772</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0313769686361</v>
+        <v>687.1559797664772</v>
       </c>
       <c r="U11" t="n">
-        <v>664.2952329261692</v>
+        <v>687.1559797664772</v>
       </c>
       <c r="V11" t="n">
-        <v>520.1154149871682</v>
+        <v>542.9761618274762</v>
       </c>
       <c r="W11" t="n">
-        <v>520.1154149871682</v>
+        <v>542.9761618274762</v>
       </c>
       <c r="X11" t="n">
-        <v>336.6397074667993</v>
+        <v>542.9761618274762</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.6397074667993</v>
+        <v>542.9761618274762</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.55836996847884</v>
+        <v>184.9776985502942</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0872713070395</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0872713070395</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="E12" t="n">
-        <v>68.0872713070395</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609898</v>
@@ -5124,46 +5124,46 @@
         <v>53.03690762936456</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398752</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398752</v>
+        <v>610.9183727939511</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6111151184234</v>
+        <v>519.7244166658693</v>
       </c>
       <c r="T12" t="n">
-        <v>519.4098086160341</v>
+        <v>482.5231101634799</v>
       </c>
       <c r="U12" t="n">
-        <v>459.7266693945112</v>
+        <v>422.839970941957</v>
       </c>
       <c r="V12" t="n">
-        <v>396.5881269037422</v>
+        <v>359.7014284511881</v>
       </c>
       <c r="W12" t="n">
-        <v>307.1307332396305</v>
+        <v>270.2440347870763</v>
       </c>
       <c r="X12" t="n">
-        <v>267.5639144619238</v>
+        <v>230.6772160093696</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.8643970028484</v>
+        <v>184.9776985502942</v>
       </c>
     </row>
     <row r="13">
@@ -5182,40 +5182,40 @@
         <v>15.07888360609898</v>
       </c>
       <c r="E13" t="n">
-        <v>51.17985001704182</v>
+        <v>51.17985001704181</v>
       </c>
       <c r="F13" t="n">
-        <v>51.17985001704182</v>
+        <v>90.00258283182519</v>
       </c>
       <c r="G13" t="n">
-        <v>51.17985001704182</v>
+        <v>90.00258283182519</v>
       </c>
       <c r="H13" t="n">
-        <v>63.37379780960101</v>
+        <v>90.00258283182519</v>
       </c>
       <c r="I13" t="n">
-        <v>63.37379780960101</v>
+        <v>103.1576628425667</v>
       </c>
       <c r="J13" t="n">
-        <v>63.37379780960101</v>
+        <v>118.5285917637476</v>
       </c>
       <c r="K13" t="n">
-        <v>173.3712655418635</v>
+        <v>118.5285917637476</v>
       </c>
       <c r="L13" t="n">
-        <v>173.3712655418635</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="M13" t="n">
-        <v>212.6413222765428</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="N13" t="n">
-        <v>212.6413222765428</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085033</v>
+        <v>402.3069076016771</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385322</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q13" t="n">
         <v>520.770111631706</v>
@@ -5239,7 +5239,7 @@
         <v>98.69221746804746</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471256</v>
+        <v>54.47232700471255</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
       <c r="C14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
       <c r="D14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
       <c r="E14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1704640980146</v>
+        <v>249.1704640980142</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913788</v>
+        <v>78.58433320913782</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115222</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102955</v>
+        <v>285.1128385102957</v>
       </c>
       <c r="L14" t="n">
-        <v>364.7424773696683</v>
+        <v>331.823996849332</v>
       </c>
       <c r="M14" t="n">
-        <v>445.5936009830136</v>
+        <v>412.6751204626773</v>
       </c>
       <c r="N14" t="n">
-        <v>632.1947856084885</v>
+        <v>487.9920637663394</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4050806852707</v>
+        <v>522.2023588431216</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852707</v>
+        <v>666.4050806852706</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686361</v>
+        <v>737.031376968636</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664776</v>
+        <v>687.1559797664775</v>
       </c>
       <c r="T14" t="n">
         <v>642.3838697695849</v>
       </c>
       <c r="U14" t="n">
-        <v>569.6477257271179</v>
+        <v>642.3838697695849</v>
       </c>
       <c r="V14" t="n">
-        <v>569.6477257271179</v>
+        <v>498.2040518305839</v>
       </c>
       <c r="W14" t="n">
-        <v>569.6477257271179</v>
+        <v>498.2040518305839</v>
       </c>
       <c r="X14" t="n">
-        <v>569.6477257271179</v>
+        <v>498.2040518305839</v>
       </c>
       <c r="Y14" t="n">
-        <v>379.2577812056661</v>
+        <v>307.8141073091321</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>253.9784159664649</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="C15" t="n">
-        <v>244.5073173050256</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D15" t="n">
-        <v>83.72720106605732</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E15" t="n">
-        <v>83.72720106605732</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>83.72720106605732</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>83.72720106605732</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>83.72720106605732</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
         <v>15.07888360609898</v>
@@ -5358,49 +5358,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0010596398752</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0010596398752</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="S15" t="n">
         <v>733.4155611444163</v>
       </c>
       <c r="T15" t="n">
-        <v>696.214254642027</v>
+        <v>543.0256166229645</v>
       </c>
       <c r="U15" t="n">
-        <v>636.5311154205041</v>
+        <v>483.3424774014418</v>
       </c>
       <c r="V15" t="n">
-        <v>573.3925729297351</v>
+        <v>420.2039349106729</v>
       </c>
       <c r="W15" t="n">
-        <v>483.9351792656234</v>
+        <v>330.7465412465613</v>
       </c>
       <c r="X15" t="n">
-        <v>444.3683604879167</v>
+        <v>291.1797224688547</v>
       </c>
       <c r="Y15" t="n">
-        <v>253.9784159664649</v>
+        <v>204.4911578731353</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.07888360609898</v>
       </c>
       <c r="D16" t="n">
-        <v>47.70840606894095</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="E16" t="n">
-        <v>83.80937247988378</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="F16" t="n">
-        <v>122.6321052946672</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6321052946672</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="H16" t="n">
-        <v>134.8260530872263</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="I16" t="n">
-        <v>147.9811330979679</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="J16" t="n">
-        <v>147.9811330979679</v>
+        <v>64.85164351911496</v>
       </c>
       <c r="K16" t="n">
-        <v>147.9811330979679</v>
+        <v>64.85164351911496</v>
       </c>
       <c r="L16" t="n">
-        <v>212.6413222765428</v>
+        <v>209.3775991250841</v>
       </c>
       <c r="M16" t="n">
-        <v>212.6413222765428</v>
+        <v>360.7689336033532</v>
       </c>
       <c r="N16" t="n">
-        <v>212.6413222765428</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085033</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="P16" t="n">
-        <v>470.3568865385322</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R16" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536063</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471255</v>
+        <v>54.47232700471247</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5492,64 +5492,64 @@
         <v>463.3662739417493</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135973</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879731</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336849</v>
+        <v>187.7621275336854</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151392</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993046</v>
+        <v>38.41417867930079</v>
       </c>
       <c r="J17" t="n">
-        <v>257.5554400254053</v>
+        <v>225.0153633047756</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5554400254053</v>
+        <v>225.0153633047756</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2665983644418</v>
+        <v>271.726521643812</v>
       </c>
       <c r="M17" t="n">
-        <v>385.1177219777871</v>
+        <v>352.5776452571573</v>
       </c>
       <c r="N17" t="n">
-        <v>460.4346652814493</v>
+        <v>427.8945885608194</v>
       </c>
       <c r="O17" t="n">
-        <v>494.6449603582316</v>
+        <v>462.1048836376016</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6449603582316</v>
+        <v>462.1048836376016</v>
       </c>
       <c r="Q17" t="n">
-        <v>681.2461449837065</v>
+        <v>462.1048836376016</v>
       </c>
       <c r="R17" t="n">
-        <v>753.944180304949</v>
+        <v>563.6457080374512</v>
       </c>
       <c r="S17" t="n">
-        <v>753.944180304949</v>
+        <v>632.8798941893855</v>
       </c>
       <c r="T17" t="n">
-        <v>753.944180304949</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="U17" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394096</v>
       </c>
       <c r="W17" t="n">
         <v>689.4266140985019</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.5542357834973</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="C18" t="n">
-        <v>563.5542357834973</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="D18" t="n">
-        <v>402.7741195445291</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="E18" t="n">
-        <v>325.7537086165507</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="F18" t="n">
         <v>165.3259923337948</v>
@@ -5595,49 +5595,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5542357834973</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5542357834973</v>
+        <v>546.1058813766983</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5542357834973</v>
+        <v>355.7159368552466</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5542357834973</v>
+        <v>355.7159368552466</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5542357834973</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="X18" t="n">
-        <v>563.5542357834973</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="Y18" t="n">
-        <v>563.5542357834973</v>
+        <v>165.3259923337948</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417495</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731524</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879736</v>
+        <v>294.577603487974</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336854</v>
+        <v>187.7621275336857</v>
       </c>
       <c r="G20" t="n">
         <v>65.14969672151395</v>
@@ -5747,55 +5747,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993046</v>
+        <v>38.4141786793008</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>38.4141786793008</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5554400254053</v>
+        <v>38.4141786793008</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2665983644418</v>
+        <v>85.12533701833719</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1177219777871</v>
+        <v>165.9764606316825</v>
       </c>
       <c r="N20" t="n">
-        <v>460.4346652814493</v>
+        <v>241.2934039353445</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6449603582316</v>
+        <v>275.5036990121268</v>
       </c>
       <c r="P20" t="n">
-        <v>494.6449603582316</v>
+        <v>275.5036990121268</v>
       </c>
       <c r="Q20" t="n">
-        <v>681.2461449837065</v>
+        <v>462.1048836376016</v>
       </c>
       <c r="R20" t="n">
-        <v>753.944180304949</v>
+        <v>563.6457080374512</v>
       </c>
       <c r="S20" t="n">
-        <v>753.944180304949</v>
+        <v>632.8798941893855</v>
       </c>
       <c r="T20" t="n">
-        <v>753.944180304949</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="U20" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394096</v>
       </c>
       <c r="W20" t="n">
         <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515945</v>
+        <v>626.4662243515949</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342392</v>
+        <v>540.7756799342395</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.5054495109471</v>
+        <v>675.9460991225553</v>
       </c>
       <c r="C21" t="n">
-        <v>195.0931752439108</v>
+        <v>486.533824855519</v>
       </c>
       <c r="D21" t="n">
-        <v>195.0931752439108</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="E21" t="n">
-        <v>195.0931752439108</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="F21" t="n">
-        <v>195.0931752439108</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="G21" t="n">
-        <v>195.0931752439108</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H21" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936452</v>
+        <v>53.03690762936453</v>
       </c>
       <c r="L21" t="n">
         <v>170.3626975743615</v>
@@ -5844,37 +5844,37 @@
         <v>538.6322093831026</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P21" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.431246959334</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R21" t="n">
-        <v>753.431246959334</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S21" t="n">
-        <v>753.431246959334</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T21" t="n">
-        <v>753.431246959334</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U21" t="n">
-        <v>753.431246959334</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V21" t="n">
-        <v>563.0413024378822</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="W21" t="n">
-        <v>563.0413024378822</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="X21" t="n">
-        <v>563.0413024378822</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Y21" t="n">
-        <v>563.0413024378822</v>
+        <v>753.9441803049489</v>
       </c>
     </row>
     <row r="22">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417498</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731525</v>
+        <v>410.0798406731532</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135985</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879736</v>
+        <v>294.5776034879743</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336858</v>
+        <v>187.7621275336861</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151393</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993046</v>
+        <v>70.95425539993045</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993046</v>
+        <v>257.5554400254053</v>
       </c>
       <c r="K23" t="n">
         <v>257.5554400254053</v>
@@ -5999,40 +5999,40 @@
         <v>385.117721977787</v>
       </c>
       <c r="N23" t="n">
-        <v>460.4346652814492</v>
+        <v>460.4346652814491</v>
       </c>
       <c r="O23" t="n">
-        <v>494.6449603582315</v>
+        <v>494.6449603582313</v>
       </c>
       <c r="P23" t="n">
-        <v>681.2461449837062</v>
+        <v>494.6449603582313</v>
       </c>
       <c r="Q23" t="n">
-        <v>681.2461449837062</v>
+        <v>536.3408015794173</v>
       </c>
       <c r="R23" t="n">
-        <v>681.2461449837062</v>
+        <v>637.8816259792669</v>
       </c>
       <c r="S23" t="n">
-        <v>750.4803311356405</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T23" t="n">
-        <v>750.4803311356405</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394099</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985017</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515947</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342392</v>
+        <v>540.7756799342399</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>476.0757077043118</v>
+        <v>463.2926200646945</v>
       </c>
       <c r="C24" t="n">
-        <v>476.0757077043118</v>
+        <v>463.2926200646945</v>
       </c>
       <c r="D24" t="n">
-        <v>476.0757077043118</v>
+        <v>302.5125038257262</v>
       </c>
       <c r="E24" t="n">
         <v>302.5125038257262</v>
@@ -6060,28 +6060,28 @@
         <v>142.0847875429703</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L24" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P24" t="n">
         <v>753.944180304949</v>
@@ -6093,25 +6093,25 @@
         <v>753.944180304949</v>
       </c>
       <c r="S24" t="n">
-        <v>666.4656522257635</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T24" t="n">
-        <v>666.4656522257635</v>
+        <v>653.6825645861463</v>
       </c>
       <c r="U24" t="n">
-        <v>666.4656522257635</v>
+        <v>653.6825645861463</v>
       </c>
       <c r="V24" t="n">
-        <v>666.4656522257635</v>
+        <v>653.6825645861463</v>
       </c>
       <c r="W24" t="n">
-        <v>476.0757077043118</v>
+        <v>653.6825645861463</v>
       </c>
       <c r="X24" t="n">
-        <v>476.0757077043118</v>
+        <v>463.2926200646945</v>
       </c>
       <c r="Y24" t="n">
-        <v>476.0757077043118</v>
+        <v>463.2926200646945</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073103</v>
+        <v>882.7789886073102</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617565</v>
+        <v>757.2394630617564</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501331</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098459</v>
+        <v>406.0252176098456</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116753</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026087</v>
+        <v>63.71793511026101</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2499218476701</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940054</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916496</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636031</v>
+        <v>926.2039246636026</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
@@ -6260,13 +6260,13 @@
         <v>1735.515443955101</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503563</v>
+        <v>1627.038924503562</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143749</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.098866440395</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.2604574908498</v>
+        <v>278.3690786569743</v>
       </c>
       <c r="C27" t="n">
-        <v>241.2604574908498</v>
+        <v>278.3690786569743</v>
       </c>
       <c r="D27" t="n">
-        <v>241.2604574908498</v>
+        <v>117.588962418006</v>
       </c>
       <c r="E27" t="n">
-        <v>241.2604574908498</v>
+        <v>117.588962418006</v>
       </c>
       <c r="F27" t="n">
-        <v>80.83274120809392</v>
+        <v>117.588962418006</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91578399468465</v>
+        <v>117.588962418006</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468465</v>
+        <v>117.588962418006</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="S27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528413</v>
+        <v>791.5783248528412</v>
       </c>
       <c r="U27" t="n">
-        <v>767.5984841187811</v>
+        <v>551.9540100257213</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1632401154749</v>
+        <v>524.5187660224151</v>
       </c>
       <c r="W27" t="n">
-        <v>470.7646708457662</v>
+        <v>470.764670845766</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2566764624626</v>
+        <v>466.9011505555221</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.2604574908498</v>
+        <v>456.9049315839094</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468465</v>
+        <v>82.47632389103977</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468465</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="E28" t="n">
-        <v>107.0095532531896</v>
+        <v>221.192418459949</v>
       </c>
       <c r="F28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="G28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="H28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="I28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="J28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="K28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="L28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="M28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="N28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="O28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="P28" t="n">
-        <v>180.8250889155352</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="R28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S28" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974702</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170772</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583555</v>
+        <v>39.60592890583552</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073111</v>
+        <v>882.7789886073107</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617573</v>
+        <v>757.2394630617569</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501339</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098465</v>
+        <v>406.0252176098461</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116759</v>
+        <v>198.6007675116755</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026087</v>
+        <v>63.71793511026098</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476701</v>
+        <v>171.2499218476699</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940056</v>
+        <v>375.9353445940054</v>
       </c>
       <c r="L29" t="n">
         <v>633.9996519916496</v>
@@ -6491,10 +6491,10 @@
         <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V29" t="n">
         <v>1627.038924503563</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.91578399468465</v>
+        <v>225.3280582617209</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528413</v>
+        <v>775.6459256237124</v>
       </c>
       <c r="U30" t="n">
-        <v>767.5984841187811</v>
+        <v>751.6660848896522</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1632401154749</v>
+        <v>508.5863667932863</v>
       </c>
       <c r="W30" t="n">
-        <v>481.0644714426606</v>
+        <v>454.8322716166373</v>
       </c>
       <c r="X30" t="n">
-        <v>261.556477059357</v>
+        <v>450.9687513263933</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.91578399468465</v>
+        <v>225.3280582617209</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F31" t="n">
-        <v>170.804392620874</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G31" t="n">
-        <v>170.804392620874</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H31" t="n">
-        <v>217.9911432609953</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="L31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="M31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="N31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="O31" t="n">
-        <v>266.139026119299</v>
+        <v>112.683019241708</v>
       </c>
       <c r="P31" t="n">
         <v>266.139026119299</v>
@@ -6655,16 +6655,16 @@
         <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170778</v>
       </c>
       <c r="X31" t="n">
         <v>39.60592890583555</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128079</v>
+        <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848168</v>
+        <v>876.9831877848166</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505967</v>
+        <v>752.3627374505966</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503072</v>
+        <v>593.6950624503071</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213537</v>
+        <v>402.9866424213536</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345173</v>
+        <v>196.4812675345172</v>
       </c>
       <c r="H32" t="n">
         <v>62.51751034443701</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J32" t="n">
         <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687723</v>
+        <v>355.5623675671077</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810448</v>
+        <v>614.5274605793802</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676261</v>
+        <v>907.6325188659616</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544524</v>
+        <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.560825294543</v>
+        <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
         <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097463</v>
+        <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.468698506371</v>
+        <v>1768.46869850637</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208275</v>
+        <v>1760.318962208274</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.6477476244</v>
+        <v>1616.647747624399</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508827</v>
+        <v>1491.901737508826</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346026</v>
+        <v>73.59245846346022</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084573</v>
+        <v>190.9182484084572</v>
       </c>
       <c r="M33" t="n">
-        <v>372.5865755917234</v>
+        <v>372.5865755917233</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914317</v>
+        <v>577.4830123914314</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347029</v>
+        <v>709.1761399347026</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="S33" t="n">
-        <v>599.2683092122223</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="T33" t="n">
-        <v>598.6893764086295</v>
+        <v>792.2160505096849</v>
       </c>
       <c r="U33" t="n">
-        <v>575.6286108859032</v>
+        <v>560.1343106454582</v>
       </c>
       <c r="V33" t="n">
-        <v>549.1124420939308</v>
+        <v>317.0545925490923</v>
       </c>
       <c r="W33" t="n">
-        <v>279.7138728242221</v>
+        <v>47.6560232793836</v>
       </c>
       <c r="X33" t="n">
-        <v>276.7694277453119</v>
+        <v>44.71157820047348</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.0476176551123</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>72.0476176551123</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D34" t="n">
-        <v>72.0476176551123</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E34" t="n">
-        <v>72.0476176551123</v>
+        <v>76.71458866725337</v>
       </c>
       <c r="F34" t="n">
-        <v>72.0476176551123</v>
+        <v>151.4309099442273</v>
       </c>
       <c r="G34" t="n">
-        <v>117.2877576234323</v>
+        <v>151.4309099442273</v>
       </c>
       <c r="H34" t="n">
-        <v>165.375293878182</v>
+        <v>199.518446198977</v>
       </c>
       <c r="I34" t="n">
-        <v>214.423962351114</v>
+        <v>248.567114671909</v>
       </c>
       <c r="J34" t="n">
-        <v>214.423962351114</v>
+        <v>248.567114671909</v>
       </c>
       <c r="K34" t="n">
-        <v>214.423962351114</v>
+        <v>248.567114671909</v>
       </c>
       <c r="L34" t="n">
-        <v>214.423962351114</v>
+        <v>248.567114671909</v>
       </c>
       <c r="M34" t="n">
-        <v>214.423962351114</v>
+        <v>248.567114671909</v>
       </c>
       <c r="N34" t="n">
-        <v>248.5671146719093</v>
+        <v>248.567114671909</v>
       </c>
       <c r="O34" t="n">
-        <v>248.5671146719093</v>
+        <v>248.567114671909</v>
       </c>
       <c r="P34" t="n">
-        <v>248.5671146719093</v>
+        <v>248.567114671909</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.5671146719093</v>
+        <v>248.567114671909</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854719</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979498</v>
+        <v>238.1710034979496</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863109</v>
+        <v>228.7126565863107</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925158</v>
+        <v>153.7039245925157</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742327</v>
+        <v>122.6826100742326</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455005</v>
+        <v>46.00302090454998</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001169</v>
+        <v>38.40550414001166</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379703</v>
+        <v>623.0203756379699</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837512</v>
+        <v>544.0845948837507</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385742</v>
+        <v>477.7077411385737</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273273</v>
+        <v>377.2836627273268</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874167</v>
+        <v>244.8188392874163</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962317</v>
+        <v>96.55706098962315</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57334671175849</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J35" t="n">
-        <v>244.892819196293</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7494615050406</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="L35" t="n">
-        <v>549.460619844077</v>
+        <v>379.0622057857797</v>
       </c>
       <c r="M35" t="n">
-        <v>630.3117434574223</v>
+        <v>636.9188480945272</v>
       </c>
       <c r="N35" t="n">
-        <v>705.6286867610844</v>
+        <v>712.2357913981893</v>
       </c>
       <c r="O35" t="n">
-        <v>739.8389818378666</v>
+        <v>746.4460864749716</v>
       </c>
       <c r="P35" t="n">
-        <v>763.2364406982135</v>
+        <v>746.4460864749716</v>
       </c>
       <c r="Q35" t="n">
-        <v>943.753677797003</v>
+        <v>926.963323573761</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.155576726194</v>
+        <v>926.963323573761</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.155576726194</v>
+        <v>971.0585842550366</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726194</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.531171778121</v>
+        <v>992.5311717781206</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515905</v>
+        <v>926.02875825159</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190604</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.079129116083</v>
+        <v>726.0791291160825</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185127</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401143</v>
       </c>
       <c r="N36" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O36" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616691</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616691</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="U36" t="n">
-        <v>777.9974492616691</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="V36" t="n">
-        <v>616.2326965642575</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="W36" t="n">
-        <v>616.2326965642575</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="X36" t="n">
-        <v>396.7247021809538</v>
+        <v>246.477593453258</v>
       </c>
       <c r="Y36" t="n">
-        <v>171.0840091162815</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="S37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379709</v>
+        <v>623.0203756379705</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837517</v>
+        <v>544.0845948837513</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385744</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273276</v>
+        <v>377.2836627273272</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874168</v>
+        <v>244.8188392874164</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962317</v>
+        <v>96.55706098962315</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858566</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J38" t="n">
-        <v>178.5660607733188</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5660607733188</v>
+        <v>502.7494615050404</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2772191123552</v>
+        <v>760.606103813788</v>
       </c>
       <c r="M38" t="n">
-        <v>306.1283427257005</v>
+        <v>841.4572274271333</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4452860293626</v>
+        <v>916.7741707307953</v>
       </c>
       <c r="O38" t="n">
-        <v>415.655581106145</v>
+        <v>950.9844658075775</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457811</v>
+        <v>950.9844658075775</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5614246445706</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9633235737615</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550371</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781213</v>
+        <v>992.5311717781209</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515909</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190613</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160835</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83690038858566</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185127</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401143</v>
       </c>
       <c r="N39" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O39" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="T39" t="n">
-        <v>560.8549671536828</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8549671536828</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="V39" t="n">
-        <v>503.4370713954457</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="W39" t="n">
-        <v>240.3448947718893</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83690038858566</v>
+        <v>614.4257206472294</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83690038858566</v>
+        <v>388.7850275825571</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.08146646549719</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="R40" t="n">
-        <v>29.08146646549719</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="S40" t="n">
-        <v>29.08146646549719</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="T40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="U40" t="n">
-        <v>20.83690038858566</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="V40" t="n">
-        <v>47.51745904613708</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="W40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.08146646549719</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543697</v>
+        <v>818.4119981543693</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153502</v>
+        <v>708.1156967153497</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853726</v>
+        <v>610.3783222853722</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893254</v>
+        <v>478.5937231893249</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646142</v>
+        <v>314.7683790646139</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7421,13 +7421,13 @@
         <v>788.7470553316213</v>
       </c>
       <c r="N41" t="n">
-        <v>864.0639986352834</v>
+        <v>864.0639986352833</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4521758049274</v>
+        <v>952.4521758049269</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.104335921391</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="Q41" t="n">
         <v>1325.885126697007</v>
@@ -7445,16 +7445,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033722</v>
+        <v>1313.364877033721</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.501942822391</v>
+        <v>1215.50194282239</v>
       </c>
       <c r="X41" t="n">
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172827</v>
+        <v>952.8312723172822</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="C42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="D42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="E42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="F42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="H42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="I42" t="n">
         <v>28.06539879618224</v>
@@ -7491,49 +7491,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944784</v>
+        <v>66.0234228194478</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3492127644449</v>
+        <v>183.3492127644448</v>
       </c>
       <c r="M42" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477109</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474192</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906904</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="S42" t="n">
-        <v>599.1168620115642</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="T42" t="n">
-        <v>381.9743799035779</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="U42" t="n">
-        <v>381.9743799035779</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="V42" t="n">
-        <v>381.9743799035779</v>
+        <v>542.1462295728995</v>
       </c>
       <c r="W42" t="n">
-        <v>356.022435842505</v>
+        <v>272.7476603031909</v>
       </c>
       <c r="X42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
       <c r="Y42" t="n">
-        <v>136.5144414592014</v>
+        <v>53.23966591988722</v>
       </c>
     </row>
     <row r="43">
@@ -7564,37 +7564,37 @@
         <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>75.84269177225474</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>75.84269177225474</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="L43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="M43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="N43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="O43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="P43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.84269177225474</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T43" t="n">
         <v>130.125806765216</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543699</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153504</v>
+        <v>708.1156967153502</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853729</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893255</v>
+        <v>478.5937231893251</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646144</v>
+        <v>314.768379064614</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7646,25 +7646,25 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6484249575439</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5827360122556</v>
+        <v>238.1585807381326</v>
       </c>
       <c r="L44" t="n">
-        <v>707.895931718276</v>
+        <v>284.869739077169</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7470553316213</v>
+        <v>365.7208626905144</v>
       </c>
       <c r="N44" t="n">
-        <v>864.0639986352834</v>
+        <v>679.6398433611605</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049274</v>
+        <v>952.4521758049268</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.104335921391</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.885126697007</v>
@@ -7691,7 +7691,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172829</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="45">
@@ -7749,25 +7749,25 @@
         <v>785.2259476692657</v>
       </c>
       <c r="R45" t="n">
-        <v>649.1432608233418</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="S45" t="n">
-        <v>455.6165867222861</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="T45" t="n">
-        <v>279.6580359219274</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="U45" t="n">
-        <v>279.6580359219274</v>
+        <v>760.0516805455604</v>
       </c>
       <c r="V45" t="n">
-        <v>279.6580359219274</v>
+        <v>516.9719624491945</v>
       </c>
       <c r="W45" t="n">
-        <v>253.7060918608546</v>
+        <v>247.5733931794859</v>
       </c>
       <c r="X45" t="n">
-        <v>253.7060918608546</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
         <v>28.06539879618224</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.59935258996339</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>107.5299361562479</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>107.5299361562479</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>107.5299361562479</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>107.5299361562479</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>107.5299361562479</v>
+        <v>99.65364145825019</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="I46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="J46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="K46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="L46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="M46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="N46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="O46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5299361562479</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T46" t="n">
         <v>130.125806765216</v>
@@ -7846,10 +7846,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96717530900613</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.59935258996339</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>166.8235507420168</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733767</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1338058733768</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9454765282923</v>
+        <v>77.14156930776329</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
         <v>193.3371482120952</v>
       </c>
       <c r="F11" t="n">
-        <v>66.34266596106541</v>
+        <v>225.0574857904725</v>
       </c>
       <c r="G11" t="n">
         <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013698</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692372</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
         <v>204.1438035689089</v>
@@ -23498,16 +23498,16 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120952</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904725</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G14" t="n">
-        <v>111.9100271632021</v>
+        <v>182.6392643207702</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X14" t="n">
         <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.65775849267166</v>
+        <v>15.6577584926716</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.782246494739993e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993441.9983250041</v>
+        <v>993441.998325004</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993441.998325004</v>
+        <v>993441.9983250042</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396869.397829407</v>
+        <v>396869.3978294068</v>
       </c>
       <c r="C2" t="n">
-        <v>396869.3978294069</v>
+        <v>396869.3978294068</v>
       </c>
       <c r="D2" t="n">
-        <v>397109.9692145351</v>
+        <v>397109.969214535</v>
       </c>
       <c r="E2" t="n">
         <v>341875.2543666514</v>
       </c>
       <c r="F2" t="n">
-        <v>341875.2543666515</v>
+        <v>341875.2543666518</v>
       </c>
       <c r="G2" t="n">
+        <v>397673.3469863412</v>
+      </c>
+      <c r="H2" t="n">
+        <v>397673.3469863412</v>
+      </c>
+      <c r="I2" t="n">
         <v>397673.3469863413</v>
       </c>
-      <c r="H2" t="n">
-        <v>397673.3469863413</v>
-      </c>
-      <c r="I2" t="n">
-        <v>397673.3469863412</v>
-      </c>
       <c r="J2" t="n">
-        <v>397673.3469863418</v>
+        <v>397673.3469863415</v>
       </c>
       <c r="K2" t="n">
         <v>397673.3469863414</v>
       </c>
       <c r="L2" t="n">
-        <v>397673.3469863407</v>
+        <v>397673.3469863408</v>
       </c>
       <c r="M2" t="n">
         <v>397673.3469863412</v>
       </c>
       <c r="N2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863413</v>
       </c>
       <c r="O2" t="n">
         <v>397673.3469863417</v>
       </c>
       <c r="P2" t="n">
-        <v>397673.3469863418</v>
+        <v>397673.3469863416</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>1092.445151390297</v>
       </c>
       <c r="E3" t="n">
-        <v>279010.1432673798</v>
+        <v>279010.1432673797</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658173</v>
+        <v>95448.13167658167</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710104</v>
+        <v>143490.4163710103</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395816</v>
+        <v>96176.03924395812</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852183</v>
+        <v>46128.9284985218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134113</v>
+        <v>72249.07655134118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>273007.1688589929</v>
       </c>
       <c r="F4" t="n">
-        <v>273007.1688589929</v>
+        <v>273007.168858993</v>
       </c>
       <c r="G4" t="n">
         <v>343622.2351637971</v>
       </c>
       <c r="H4" t="n">
-        <v>343622.2351637972</v>
+        <v>343622.2351637971</v>
       </c>
       <c r="I4" t="n">
         <v>343622.2351637971</v>
@@ -26451,7 +26451,7 @@
         <v>343507.3401207502</v>
       </c>
       <c r="N4" t="n">
-        <v>343507.3401207502</v>
+        <v>343507.3401207503</v>
       </c>
       <c r="O4" t="n">
         <v>343894.3694482117</v>
@@ -26479,7 +26479,7 @@
         <v>28641.3515203439</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.3515203439</v>
+        <v>28641.35152034391</v>
       </c>
       <c r="G5" t="n">
         <v>38671.63774774208</v>
@@ -26488,7 +26488,7 @@
         <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="J5" t="n">
         <v>47448.92101020608</v>
@@ -26497,16 +26497,16 @@
         <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539591</v>
+        <v>47311.58842539589</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860084</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860084</v>
       </c>
       <c r="O5" t="n">
-        <v>43796.55431105828</v>
+        <v>43796.55431105827</v>
       </c>
       <c r="P5" t="n">
         <v>43796.55431105828</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24684.31276932832</v>
+        <v>-24688.77915353363</v>
       </c>
       <c r="C6" t="n">
-        <v>-24684.31276932838</v>
+        <v>-24688.77915353363</v>
       </c>
       <c r="D6" t="n">
-        <v>-25442.12940479766</v>
+        <v>-25445.25928130775</v>
       </c>
       <c r="E6" t="n">
-        <v>-238783.4092800653</v>
+        <v>-239093.3986835078</v>
       </c>
       <c r="F6" t="n">
-        <v>40226.7339873147</v>
+        <v>39916.74458387221</v>
       </c>
       <c r="G6" t="n">
         <v>-80068.65760177965</v>
       </c>
       <c r="H6" t="n">
-        <v>15379.47407480205</v>
+        <v>15379.47407480199</v>
       </c>
       <c r="I6" t="n">
-        <v>15379.47407480199</v>
+        <v>15379.4740748021</v>
       </c>
       <c r="J6" t="n">
-        <v>-137598.0025808339</v>
+        <v>-137598.0025808342</v>
       </c>
       <c r="K6" t="n">
         <v>5892.41379017607</v>
       </c>
       <c r="L6" t="n">
-        <v>-90130.03456155247</v>
+        <v>-90130.0345615524</v>
       </c>
       <c r="M6" t="n">
-        <v>-32875.90029153173</v>
+        <v>-32875.90029153171</v>
       </c>
       <c r="N6" t="n">
-        <v>13253.02820698995</v>
+        <v>13253.02820699014</v>
       </c>
       <c r="O6" t="n">
-        <v>-62266.65332426949</v>
+        <v>-62266.65332426942</v>
       </c>
       <c r="P6" t="n">
-        <v>9982.423227071791</v>
+        <v>9982.423227071617</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G2" t="n">
         <v>297.4519284452682</v>
@@ -26744,37 +26744,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="P3" t="n">
         <v>101.1559648918172</v>
@@ -26796,7 +26796,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F4" t="n">
         <v>188.4860450762372</v>
@@ -26808,28 +26808,28 @@
         <v>188.4860450762372</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="K4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024332</v>
+        <v>445.4304305024331</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8174849522781</v>
+        <v>350.8174849522779</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8174849522781</v>
+        <v>350.8174849522779</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315228</v>
+        <v>57.66116062315226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844952</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9691756451125</v>
+        <v>184.9691756451124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573209</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M4" t="n">
-        <v>184.9691756451125</v>
+        <v>184.9691756451124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>373.9095919900807</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27932,16 +27932,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.4204929294312</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.6554456454537</v>
       </c>
       <c r="E9" t="n">
-        <v>168.3107024086749</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.3065696888035</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27983,7 +27983,7 @@
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.2152558445359</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28111,28 +28111,28 @@
         <v>178.141763849541</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>145.8858957599672</v>
       </c>
       <c r="K11" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="L11" t="n">
-        <v>80.15245647791389</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O11" t="n">
         <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71843090037105</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R11" t="n">
         <v>178.141763849541</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.88752763363988</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>178.141763849541</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446376404189</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.105362283807924</v>
+        <v>101.3093907932442</v>
       </c>
       <c r="T12" t="n">
         <v>178.141763849541</v>
@@ -28257,31 +28257,31 @@
         <v>178.141763849541</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G13" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="I13" t="n">
-        <v>164.8538042427314</v>
-      </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>135.7677642319607</v>
       </c>
       <c r="K13" t="n">
+        <v>67.0332105846294</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="L13" t="n">
-        <v>32.15595010613789</v>
-      </c>
       <c r="M13" t="n">
-        <v>64.88794794692512</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O13" t="n">
         <v>178.141763849541</v>
@@ -28290,7 +28290,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="L14" t="n">
-        <v>33.25099042458218</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4083245674876</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.10088611163702</v>
+        <v>160.7602011037068</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="15">
@@ -28406,10 +28406,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.141763849541</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28424,10 +28424,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>39.40271795103024</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>26.48501221066925</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.89824105778837</v>
+        <v>137.5626071842634</v>
       </c>
     </row>
     <row r="16">
@@ -28488,70 +28488,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E16" t="n">
-        <v>178.141763849541</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.141763849541</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H16" t="n">
-        <v>178.141763849541</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I16" t="n">
-        <v>178.141763849541</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
-        <v>120.241573402485</v>
+        <v>137.5579748673072</v>
       </c>
       <c r="K16" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L16" t="n">
-        <v>97.46927250873884</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="M16" t="n">
-        <v>25.22122397250158</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52441230575096</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452682</v>
+        <v>264.5831640809957</v>
       </c>
       <c r="J17" t="n">
         <v>265.2729250819164</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103263</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
-        <v>268.3177980628368</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="S17" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V17" t="n">
         <v>297.4519284452682</v>
@@ -28646,13 +28646,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>95.57736502110113</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28664,7 +28664,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R18" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>3.105362283807953</v>
+        <v>3.105362283807978</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>197.6971864241756</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.7420266026114</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077437</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28746,19 +28746,19 @@
         <v>120.241573402485</v>
       </c>
       <c r="K19" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P19" t="n">
         <v>58.48196179900678</v>
@@ -28819,13 +28819,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>264.5831640809958</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103263</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q20" t="n">
         <v>278.2044759766083</v>
       </c>
       <c r="R20" t="n">
-        <v>268.3177980628368</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="S20" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V20" t="n">
         <v>297.4519284452682</v>
@@ -28877,31 +28877,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>99.53239402709613</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I21" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.36588544626429</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
@@ -28937,7 +28937,7 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
-        <v>52.162875839165</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28983,19 +28983,19 @@
         <v>120.241573402485</v>
       </c>
       <c r="K22" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P22" t="n">
         <v>58.48196179900678</v>
@@ -29059,10 +29059,10 @@
         <v>297.4519284452682</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78688000567911</v>
+        <v>265.2729250819165</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2211221593404</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878742</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037105</v>
+        <v>131.8354422349023</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8854391524908</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="S23" t="n">
         <v>297.4519284452682</v>
@@ -29092,7 +29092,7 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U23" t="n">
-        <v>253.6493839963391</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452682</v>
@@ -29120,10 +29120,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>104.9876645616516</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>115.7120577252918</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
@@ -29177,10 +29177,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.2185385007744</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.8268693632333</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,19 +29220,19 @@
         <v>120.241573402485</v>
       </c>
       <c r="K25" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P25" t="n">
         <v>58.48196179900678</v>
@@ -29305,7 +29305,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4880293521293</v>
+        <v>213.488029352129</v>
       </c>
       <c r="N26" t="n">
         <v>213.488029352129</v>
@@ -29351,31 +29351,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>104.2768499991437</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H27" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I27" t="n">
-        <v>107.364552236389</v>
+        <v>26.5081055973008</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R27" t="n">
         <v>134.7218599774646</v>
@@ -29408,16 +29408,16 @@
         <v>213.488029352129</v>
       </c>
       <c r="U27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y27" t="n">
         <v>213.488029352129</v>
@@ -29433,16 +29433,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E28" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="F28" t="n">
-        <v>213.488029352129</v>
+        <v>184.3274960157698</v>
       </c>
       <c r="G28" t="n">
         <v>168.7008027322384</v>
@@ -29457,25 +29457,25 @@
         <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P28" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3950084056926</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
         <v>203.4312113734075</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
@@ -29642,19 +29642,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>213.488029352129</v>
+        <v>197.7149541152916</v>
       </c>
       <c r="U30" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="W30" t="n">
-        <v>10.19680259092553</v>
-      </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,43 +29673,43 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>206.872622941462</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
-        <v>213.488029352129</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>213.488029352129</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K31" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028791</v>
+        <v>115.0254759859681</v>
       </c>
       <c r="P31" t="n">
-        <v>58.48196179900678</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
@@ -29773,7 +29773,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884562</v>
       </c>
       <c r="L32" t="n">
         <v>214.3979138113496</v>
@@ -29788,7 +29788,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="P32" t="n">
-        <v>192.2835716884567</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3979138113496</v>
@@ -29843,13 +29843,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I33" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,22 +29870,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3979138113496</v>
+        <v>7.46714921326415</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.3964876594621</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3979138113496</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,13 +29913,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>183.1712464920823</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3979138113496</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
         <v>214.3979138113496</v>
@@ -29931,22 +29931,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250158</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N34" t="n">
-        <v>51.01244495301886</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900678</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
@@ -30010,13 +30010,13 @@
         <v>272.0590744345018</v>
       </c>
       <c r="K35" t="n">
-        <v>267.196331940424</v>
+        <v>6.735077083103306</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>88.34164469742468</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.793453227679</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,19 +30025,19 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>38.73468294027025</v>
+        <v>15.10088611163707</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="R35" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S35" t="n">
         <v>272.0590744345018</v>
       </c>
-      <c r="S35" t="n">
-        <v>227.518407079678</v>
-      </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
         <v>272.0590744345018</v>
@@ -30077,7 +30077,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
         <v>125.7358448975026</v>
@@ -30086,7 +30086,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>17.42152452665366</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
@@ -30122,7 +30122,7 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>80.50181574496477</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30168,22 +30168,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K37" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250158</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575096</v>
+        <v>52.08110724049061</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900678</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2193142604766</v>
@@ -30195,7 +30195,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3183721886116</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
         <v>272.0590744345018</v>
@@ -30241,16 +30241,16 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
-        <v>236.1092642326822</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="K38" t="n">
-        <v>6.735077083103263</v>
+        <v>267.196331940424</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2782666360718</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,22 +30262,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0590744345018</v>
+        <v>15.10088611163707</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>181.4967678919925</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30353,22 +30353,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>183.8052041147475</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243328719690794</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>55.37690311117549</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,25 +30405,25 @@
         <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250158</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900678</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.2193142604766</v>
+        <v>162.7760091952162</v>
       </c>
       <c r="R40" t="n">
         <v>203.4312113734075</v>
@@ -30432,13 +30432,13 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T40" t="n">
-        <v>232.3683129385597</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U40" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0590744345018</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0590744345018</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>54.72513342713304</v>
+        <v>54.72513342713276</v>
       </c>
       <c r="P41" t="n">
         <v>241.0121589565495</v>
@@ -30557,10 +30557,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>82.44202778392108</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>7.343412558920733</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30636,40 +30636,40 @@
         <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
-        <v>213.1136961377541</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>67.03321058462939</v>
+        <v>170.1245317654716</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250158</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900678</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>241.0121589565495</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S43" t="n">
         <v>235.4385289329965</v>
       </c>
       <c r="T43" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U43" t="n">
         <v>241.0121589565495</v>
@@ -30718,22 +30718,22 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J44" t="n">
+        <v>76.78688000567911</v>
+      </c>
+      <c r="K44" t="n">
+        <v>218.9504123780026</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="L44" t="n">
-        <v>241.0121589565495</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>54.72513342713304</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423151</v>
+        <v>6.873689458423144</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>40.77209199455137</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>212.3055472263804</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>203.7608007358961</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30867,10 +30867,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.7008027322384</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="H46" t="n">
-        <v>165.824644867158</v>
+        <v>196.6046098236891</v>
       </c>
       <c r="I46" t="n">
         <v>164.8538042427314</v>
@@ -30885,7 +30885,7 @@
         <v>32.15595010613789</v>
       </c>
       <c r="M46" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250157</v>
       </c>
       <c r="N46" t="n">
         <v>16.52441230575096</v>
@@ -30894,7 +30894,7 @@
         <v>37.48281412028791</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900678</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2193142604766</v>
@@ -30903,10 +30903,10 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>241.0121589565495</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -30918,10 +30918,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.0121589565495</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T11" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374772</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M13" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T14" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374772</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T17" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374772</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H19" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M19" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T20" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374772</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M22" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T23" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R24" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374772</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H25" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M25" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T26" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374772</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H28" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M28" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T29" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572083</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R30" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374772</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H31" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M31" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780141653523335</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572083</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431452333374772</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H34" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M34" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N34" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769307</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780141653523335</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572083</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R36" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431452333374772</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H37" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M37" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N37" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769307</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780141653523335</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572083</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R39" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431452333374772</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H40" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M40" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N40" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769307</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594149</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355898</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780141653523335</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914539</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572083</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R42" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431452333374772</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H43" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M43" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N43" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769307</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937372</v>
+        <v>0.4066571452937373</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239487</v>
+        <v>4.164677489239488</v>
       </c>
       <c r="I44" t="n">
         <v>15.67764959393682</v>
@@ -34369,25 +34369,25 @@
         <v>34.51451688537436</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565827</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594149</v>
+        <v>64.1735474559415</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355898</v>
+        <v>71.405436463559</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762482</v>
+        <v>72.56085107762483</v>
       </c>
       <c r="O44" t="n">
         <v>68.51715408911022</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467107</v>
+        <v>58.47780581467108</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883909</v>
+        <v>43.9143967988391</v>
       </c>
       <c r="R44" t="n">
         <v>25.54467690305774</v>
@@ -34396,7 +34396,7 @@
         <v>9.266699698381046</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780141653523335</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U44" t="n">
         <v>0.03253257162349897</v>
@@ -34442,7 +34442,7 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327974</v>
       </c>
       <c r="J45" t="n">
         <v>20.55660980881731</v>
@@ -34451,19 +34451,19 @@
         <v>35.13452037190599</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914539</v>
+        <v>47.2426985091454</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604037</v>
+        <v>55.13000086604038</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452707</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572083</v>
+        <v>51.76799648572084</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698055</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77399247369291</v>
@@ -34475,10 +34475,10 @@
         <v>4.04146708789477</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8770031295809432</v>
+        <v>0.8770031295809433</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431452333374772</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.621812027281923</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248056</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J46" t="n">
         <v>12.89655637645348</v>
@@ -34530,7 +34530,7 @@
         <v>21.19300379208891</v>
       </c>
       <c r="L46" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M46" t="n">
         <v>28.5939721742558</v>
@@ -34539,7 +34539,7 @@
         <v>27.9140714266223</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P46" t="n">
         <v>22.06195011345468</v>
@@ -34548,16 +34548,16 @@
         <v>15.2745506986644</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769307</v>
+        <v>8.201924628769309</v>
       </c>
       <c r="S46" t="n">
         <v>3.178950568813336</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189192</v>
+        <v>0.7793984180189193</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539408</v>
+        <v>0.009949767038539409</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
+        <v>0.1678556611008975</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>3.374773696533902</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>69.09901575428808</v>
       </c>
       <c r="K11" t="n">
         <v>171.4066867664377</v>
       </c>
       <c r="L11" t="n">
-        <v>127.3354446991628</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964174</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L12" t="n">
         <v>118.5108989343404</v>
@@ -35498,13 +35498,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762371</v>
       </c>
       <c r="O12" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,28 +35553,28 @@
         <v>36.46562263731599</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.31711898238303</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.28795960680961</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.5261908294756</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
-        <v>39.66672397442355</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>119.6598020505342</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.9224495890644</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664377</v>
+        <v>171.4066867664378</v>
       </c>
       <c r="L14" t="n">
-        <v>80.4339786458311</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964174</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4860450762372</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>145.6593149920697</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916993</v>
+        <v>88.42333294917</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L15" t="n">
         <v>118.5108989343404</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883027</v>
+        <v>32.95911359883036</v>
       </c>
       <c r="E16" t="n">
-        <v>36.46562263731599</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.21488163109433</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238303</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.28795960680962</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.31640146482215</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>65.31332240260095</v>
+        <v>145.9858137434032</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9205398770395</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.9224495890644</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871867</v>
+        <v>23.57100512444628</v>
       </c>
       <c r="J17" t="n">
         <v>188.4860450762372</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124892</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M17" t="n">
-        <v>81.66780162964174</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.43235891034597</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.9335213655902</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98577569880344</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -35978,7 +35978,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871867</v>
+        <v>23.57100512444629</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124892</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964174</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>188.4860450762372</v>
       </c>
       <c r="R20" t="n">
-        <v>73.43235891034597</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.9335213655902</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98577569880344</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733893</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871867</v>
+        <v>56.43976948871865</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K23" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124892</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964174</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>42.11701133453127</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S23" t="n">
         <v>69.9335213655902</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.498837544755776</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36446,13 +36446,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817711</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
@@ -36616,7 +36616,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963821</v>
+        <v>18.60259019963823</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L27" t="n">
         <v>118.5108989343404</v>
@@ -36683,13 +36683,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O27" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,16 +36729,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.0308483801567</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30537910141834</v>
       </c>
       <c r="E28" t="n">
-        <v>71.81188813990403</v>
+        <v>71.81188813990406</v>
       </c>
       <c r="F28" t="n">
-        <v>74.56114713368237</v>
+        <v>45.4006137973231</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.17569414521599</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O29" t="n">
         <v>248.0438829650404</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963821</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L30" t="n">
         <v>118.5108989343404</v>
@@ -36920,13 +36920,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O30" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,22 +36969,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30537910141831</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>67.94574072301538</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66338448497106</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63422510939765</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>77.54266186568017</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0060675531222</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>185.5484946053529</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325985</v>
+        <v>261.5809020325984</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409913</v>
@@ -37084,13 +37084,13 @@
         <v>248.9537674242609</v>
       </c>
       <c r="P32" t="n">
-        <v>177.1826855768197</v>
+        <v>199.2970276997125</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885874</v>
+        <v>19.51247465885875</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L33" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M33" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.78099314638146</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,19 +37209,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.49510527985728</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>75.47103159290293</v>
       </c>
       <c r="G34" t="n">
-        <v>45.69711107911115</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.5732689441916</v>
+        <v>48.57326894419162</v>
       </c>
       <c r="I34" t="n">
-        <v>49.54410956861819</v>
+        <v>49.54410956861822</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>34.4880326472679</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.96670243794209</v>
+        <v>10.96670243794211</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795235</v>
+        <v>31.04691547795234</v>
       </c>
       <c r="J35" t="n">
         <v>195.2721944288227</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4612548573208</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124892</v>
+        <v>135.5246329186735</v>
       </c>
       <c r="M35" t="n">
-        <v>81.66780162964174</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291133</v>
       </c>
       <c r="P35" t="n">
-        <v>23.63379682863322</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>182.3406435341307</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201102</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54066735482387</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
         <v>21.90852798291854</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L36" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M36" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04691547795234</v>
       </c>
       <c r="J38" t="n">
-        <v>159.3223842270031</v>
+        <v>195.2721944288227</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124892</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="M38" t="n">
-        <v>81.66780162964174</v>
+        <v>81.66780162964169</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291133</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9581883228648</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>91.77833699162143</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201102</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482388</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L39" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M39" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37728,13 +37728,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>8.60663568468769</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.95005925005194</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L41" t="n">
-        <v>288.1951471777984</v>
+        <v>288.1951471777983</v>
       </c>
       <c r="M41" t="n">
-        <v>81.66780162964174</v>
+        <v>81.66780162964169</v>
       </c>
       <c r="N41" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O41" t="n">
-        <v>89.28098704004444</v>
+        <v>89.2809870400441</v>
       </c>
       <c r="P41" t="n">
         <v>225.9112728449124</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561785</v>
+        <v>151.2937280561784</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405865</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687153</v>
+        <v>13.49375187687152</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54600621008478</v>
+        <v>18.54600621008477</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733899</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L42" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M42" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37932,13 +37932,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>48.25989189502273</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.58094758314202</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.25048170267745</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2252789508703</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2770818734462</v>
+        <v>212.2153352948993</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1951471777984</v>
+        <v>47.18298822124893</v>
       </c>
       <c r="M44" t="n">
-        <v>81.66780162964174</v>
+        <v>81.66780162964176</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874962</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O44" t="n">
-        <v>89.28098704004444</v>
+        <v>275.5680125694608</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2937280561785</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405868</v>
       </c>
       <c r="S44" t="n">
         <v>13.49375187687153</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733899</v>
+        <v>38.341438407339</v>
       </c>
       <c r="L45" t="n">
         <v>118.5108989343404</v>
@@ -38111,7 +38111,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>37.30361976392371</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38163,10 +38163,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.31135622431107</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>30.77996495653115</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.57363002355301</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.25048170267745</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09270354830696</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.87088614238107</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
